--- a/Figure 5/5(f,i)/NbTiN_man_SEM_processed.xlsx
+++ b/Figure 5/5(f,i)/NbTiN_man_SEM_processed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NbTiN SEM overlap" sheetId="5" r:id="rId1"/>
@@ -406,9 +406,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -900,18 +900,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1235,7 +1235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -4171,8 +4171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4234,8 +4234,7 @@
         <v>4465.4381999999996</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I35" si="2">F2*SIGN(D2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4266,7 +4265,7 @@
         <v>4446.2578874999999</v>
       </c>
       <c r="I3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I2:I35" si="2">F3*SIGN(D3)</f>
         <v>-2.8279999999999998</v>
       </c>
     </row>
